--- a/Model Variants Evaluations.xlsx
+++ b/Model Variants Evaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdally/OneDrive - Delft University of Technology/TU/Agent-based Modelling/agent_based_modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58F6CB1-90BC-0448-94FC-B771B41D3452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269CCD4F-9E8B-0747-9400-25CF86838C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7160" yWindow="1000" windowWidth="24740" windowHeight="15000" activeTab="1" xr2:uid="{9A281EE4-BE87-9E4A-80E3-1AE2D8647109}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>Used capacity (of total capacity)</t>
   </si>
   <si>
-    <t>Average travel distance to runway (patches)</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>Variant 4</t>
+  </si>
+  <si>
+    <t>Average travel distance (patches)</t>
   </si>
 </sst>
 </file>
@@ -583,19 +583,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -625,15 +625,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C108C9-42B1-8444-A957-8C652590726B}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
     <col min="8" max="8" width="44.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -648,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -709,7 +710,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -720,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
@@ -735,12 +736,12 @@
         <v>15</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>1873</v>
@@ -766,7 +767,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>2486</v>
@@ -792,7 +793,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>2486</v>
@@ -818,7 +819,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -829,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>12</v>
@@ -844,12 +845,12 @@
         <v>15</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>1846</v>
@@ -875,7 +876,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>2486</v>
@@ -901,33 +902,33 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>2486</v>
       </c>
       <c r="C19" s="1">
-        <v>1877</v>
+        <v>1892</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <v>0.45</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="F19" s="4">
-        <v>0.71</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="G19" s="4">
-        <v>0.51</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>31</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -938,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>12</v>
@@ -953,12 +954,12 @@
         <v>15</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -970,7 +971,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -982,7 +983,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -994,7 +995,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1005,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>12</v>
@@ -1020,12 +1021,12 @@
         <v>15</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1037,7 +1038,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1049,7 +1050,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1061,7 +1062,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1072,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>12</v>
@@ -1087,12 +1088,12 @@
         <v>15</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1104,7 +1105,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1116,7 +1117,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>

--- a/Model Variants Evaluations.xlsx
+++ b/Model Variants Evaluations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdally/OneDrive - Delft University of Technology/TU/Agent-based Modelling/agent_based_modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269CCD4F-9E8B-0747-9400-25CF86838C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{269CCD4F-9E8B-0747-9400-25CF86838C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC4D340F-45BD-6A44-AB2F-5C0D5CDDA25B}"/>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="1000" windowWidth="24740" windowHeight="15000" activeTab="1" xr2:uid="{9A281EE4-BE87-9E4A-80E3-1AE2D8647109}"/>
+    <workbookView xWindow="4460" yWindow="9220" windowWidth="24740" windowHeight="15000" activeTab="1" xr2:uid="{9A281EE4-BE87-9E4A-80E3-1AE2D8647109}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel2LaTeX" sheetId="2" state="hidden" r:id="rId1"/>
@@ -173,7 +173,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -251,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -260,7 +260,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,10 +626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C108C9-42B1-8444-A957-8C652590726B}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,6 +1130,12 @@
       <c r="G37" s="4"/>
       <c r="H37" s="1"/>
     </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="9"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Model Variants Evaluations.xlsx
+++ b/Model Variants Evaluations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdally/OneDrive - Delft University of Technology/TU/Agent-based Modelling/agent_based_modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{269CCD4F-9E8B-0747-9400-25CF86838C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC4D340F-45BD-6A44-AB2F-5C0D5CDDA25B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655C57EC-0C5D-5748-AA73-44D875076FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="9220" windowWidth="24740" windowHeight="15000" activeTab="1" xr2:uid="{9A281EE4-BE87-9E4A-80E3-1AE2D8647109}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{9A281EE4-BE87-9E4A-80E3-1AE2D8647109}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel2LaTeX" sheetId="2" state="hidden" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
   <si>
     <t>Variant</t>
   </si>
@@ -167,15 +167,18 @@
   <si>
     <t>Average travel distance (patches)</t>
   </si>
+  <si>
+    <t>Coefficient of variation n=10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,6 +210,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -251,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -259,11 +277,18 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,22 +651,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C108C9-42B1-8444-A957-8C652590726B}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" customWidth="1"/>
     <col min="8" max="8" width="44.1640625" customWidth="1"/>
+    <col min="11" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -655,7 +684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -669,7 +698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -683,7 +712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -697,7 +726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -711,12 +740,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J9" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -741,91 +773,204 @@
       <c r="H10" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1">
-        <v>1873</v>
+        <v>1861.7</v>
       </c>
       <c r="C11" s="1">
-        <v>1855</v>
+        <v>1866</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="8">
-        <v>2.3E-2</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="H11" s="1">
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E11" s="9">
+        <v>2.29</v>
+      </c>
+      <c r="F11" s="9">
+        <v>55.896000000000001</v>
+      </c>
+      <c r="G11" s="9">
+        <v>24.311</v>
+      </c>
+      <c r="H11" s="9">
+        <v>31.666</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="13">
+        <v>9.3997999999999998E-3</v>
+      </c>
+      <c r="L11" s="13">
+        <v>9.3676999999999996E-3</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>4.9807000000000002E-3</v>
+      </c>
+      <c r="O11" s="13">
+        <v>1.7878E-3</v>
+      </c>
+      <c r="P11" s="13">
+        <v>9.7156000000000003E-5</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>2.2609E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>2486</v>
+        <v>2485.1</v>
       </c>
       <c r="C12" s="1">
-        <v>2486</v>
+        <v>2485.9</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="8">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="H12" s="1">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="9">
+        <v>67.84</v>
+      </c>
+      <c r="F12" s="9">
+        <v>91.372</v>
+      </c>
+      <c r="G12" s="9">
+        <v>99.061999999999998</v>
+      </c>
+      <c r="H12" s="9">
+        <v>31.838000000000001</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="13">
+        <v>1.2725E-4</v>
+      </c>
+      <c r="L12" s="13">
+        <v>1.2721E-4</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>2.4352000000000002E-3</v>
+      </c>
+      <c r="O12" s="13">
+        <v>1.7390999999999999E-3</v>
+      </c>
+      <c r="P12" s="13">
+        <v>3.8257999999999999E-3</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>1.6106E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>2486</v>
+        <v>2485.5</v>
       </c>
       <c r="C13" s="1">
-        <v>1877</v>
+        <v>1864.9</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="8">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="H13" s="1">
-        <v>31.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="E13" s="9">
+        <v>46.381</v>
+      </c>
+      <c r="F13" s="9">
+        <v>69.543999999999997</v>
+      </c>
+      <c r="G13" s="9">
+        <v>51.37</v>
+      </c>
+      <c r="H13" s="9">
+        <v>31.427</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="13">
+        <v>2.1205E-4</v>
+      </c>
+      <c r="L13" s="13">
+        <v>5.3169999999999997E-3</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>1.4149E-2</v>
+      </c>
+      <c r="O13" s="13">
+        <v>3.5728999999999999E-3</v>
+      </c>
+      <c r="P13" s="13">
+        <v>1.0446E-2</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>1.5856999999999999E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -850,91 +995,204 @@
       <c r="H16" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>1846</v>
+        <v>1860.4</v>
       </c>
       <c r="C17" s="1">
-        <v>1882</v>
+        <v>1867.5</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="3">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="H17" s="1">
-        <v>31.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E17" s="9">
+        <v>2.3420999999999998</v>
+      </c>
+      <c r="F17" s="9">
+        <v>57.287999999999997</v>
+      </c>
+      <c r="G17" s="9">
+        <v>24.324000000000002</v>
+      </c>
+      <c r="H17" s="9">
+        <v>31.667000000000002</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="13">
+        <v>7.7406000000000003E-3</v>
+      </c>
+      <c r="L17" s="13">
+        <v>7.7114000000000002E-3</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="13">
+        <v>6.1411E-3</v>
+      </c>
+      <c r="O17" s="13">
+        <v>1.1069999999999999E-3</v>
+      </c>
+      <c r="P17" s="13">
+        <v>1.2976E-4</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>1.4800999999999999E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>2486</v>
+        <v>2485.1</v>
       </c>
       <c r="C18" s="1">
-        <v>2486</v>
+        <v>2307.6</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="4">
-        <v>0.63</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.87</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="H18" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E18" s="9">
+        <v>58.231000000000002</v>
+      </c>
+      <c r="F18" s="9">
+        <v>83.126000000000005</v>
+      </c>
+      <c r="G18" s="9">
+        <v>77.58</v>
+      </c>
+      <c r="H18" s="9">
+        <v>32.119</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="13">
+        <v>1.2725E-4</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0.12449</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0.14634</v>
+      </c>
+      <c r="O18" s="13">
+        <v>9.6458000000000002E-2</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0.23488999999999999</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>1.5027E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>2486</v>
+        <v>2485.4</v>
       </c>
       <c r="C19" s="1">
-        <v>1892</v>
+        <v>2068.8000000000002</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="4">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="H19" s="1">
-        <v>31.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="E19" s="9">
+        <v>51.078000000000003</v>
+      </c>
+      <c r="F19" s="9">
+        <v>76.450999999999993</v>
+      </c>
+      <c r="G19" s="9">
+        <v>62.445999999999998</v>
+      </c>
+      <c r="H19" s="9">
+        <v>31.719000000000001</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="13">
+        <v>2.0777E-4</v>
+      </c>
+      <c r="L19" s="13">
+        <v>0.13911999999999999</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="13">
+        <v>0.16864999999999999</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0.10568</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0.29341</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>1.5424999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -959,8 +1217,32 @@
       <c r="H22" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -971,8 +1253,18 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -983,8 +1275,18 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -995,13 +1297,40 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="J25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1026,8 +1355,32 @@
       <c r="H28" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -1038,8 +1391,18 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -1050,8 +1413,18 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -1062,13 +1435,40 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="J31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+    </row>
+    <row r="33" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>10</v>
       </c>
@@ -1093,8 +1493,32 @@
       <c r="H34" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1105,8 +1529,18 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
@@ -1117,8 +1551,18 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -1129,12 +1573,22 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C42" s="9"/>
+      <c r="J37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C42" s="7"/>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="9"/>
+      <c r="C57" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Model Variants Evaluations.xlsx
+++ b/Model Variants Evaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdally/OneDrive - Delft University of Technology/TU/Agent-based Modelling/agent_based_modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655C57EC-0C5D-5748-AA73-44D875076FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633DB90C-B111-E445-9402-EC46F8ABFBA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{9A281EE4-BE87-9E4A-80E3-1AE2D8647109}"/>
   </bookViews>
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -280,15 +280,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C108C9-42B1-8444-A957-8C652590726B}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:H13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,7 +664,7 @@
     <col min="5" max="5" width="26.33203125" customWidth="1"/>
     <col min="8" max="8" width="44.1640625" customWidth="1"/>
     <col min="11" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -741,10 +739,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -782,7 +780,7 @@
       <c r="L10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N10" s="5" t="s">
@@ -811,40 +809,40 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>2.29</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>55.896000000000001</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>24.311</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>31.666</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="3">
         <v>9.3997999999999998E-3</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="3">
         <v>9.3676999999999996E-3</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="3">
         <v>4.9807000000000002E-3</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="3">
         <v>1.7878E-3</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="3">
         <v>9.7156000000000003E-5</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="3">
         <v>2.2609E-5</v>
       </c>
     </row>
@@ -861,40 +859,40 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>67.84</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>91.372</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>99.061999999999998</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>31.838000000000001</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="3">
         <v>1.2725E-4</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="3">
         <v>1.2721E-4</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="3">
         <v>2.4352000000000002E-3</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="3">
         <v>1.7390999999999999E-3</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="3">
         <v>3.8257999999999999E-3</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="3">
         <v>1.6106E-3</v>
       </c>
     </row>
@@ -911,64 +909,66 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>46.381</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>69.543999999999997</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>51.37</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>31.427</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="3">
         <v>2.1205E-4</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="3">
         <v>5.3169999999999997E-3</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="3">
         <v>1.4149E-2</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="3">
         <v>3.5728999999999999E-3</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="3">
         <v>1.0446E-2</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="3">
         <v>1.5856999999999999E-4</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
@@ -1004,7 +1004,7 @@
       <c r="L16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="N16" s="14" t="s">
@@ -1033,40 +1033,40 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>2.3420999999999998</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>57.287999999999997</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>24.324000000000002</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>31.667000000000002</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="3">
         <v>7.7406000000000003E-3</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="3">
         <v>7.7114000000000002E-3</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="3">
         <v>6.1411E-3</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="3">
         <v>1.1069999999999999E-3</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="3">
         <v>1.2976E-4</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="3">
         <v>1.4800999999999999E-5</v>
       </c>
     </row>
@@ -1083,40 +1083,40 @@
       <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>58.231000000000002</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>83.126000000000005</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>77.58</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>32.119</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="3">
         <v>1.2725E-4</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="3">
         <v>0.12449</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="3">
         <v>0</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="3">
         <v>0.14634</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="3">
         <v>9.6458000000000002E-2</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="3">
         <v>0.23488999999999999</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="3">
         <v>1.5027E-2</v>
       </c>
     </row>
@@ -1133,64 +1133,66 @@
       <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>51.078000000000003</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>76.450999999999993</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>62.445999999999998</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>31.719000000000001</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="3">
         <v>2.0777E-4</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="3">
         <v>0.13911999999999999</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="3">
         <v>0</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="3">
         <v>0.16864999999999999</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="3">
         <v>0.10568</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="3">
         <v>0.29341</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="3">
         <v>1.5424999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
@@ -1226,7 +1228,7 @@
       <c r="L22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="M22" s="14" t="s">
         <v>12</v>
       </c>
       <c r="N22" s="14" t="s">
@@ -1256,13 +1258,13 @@
       <c r="J23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1278,13 +1280,13 @@
       <c r="J24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1300,35 +1302,37 @@
       <c r="J25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
@@ -1364,7 +1368,7 @@
       <c r="L28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="14" t="s">
         <v>12</v>
       </c>
       <c r="N28" s="14" t="s">
@@ -1394,13 +1398,13 @@
       <c r="J29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -1416,13 +1420,13 @@
       <c r="J30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -1438,35 +1442,37 @@
       <c r="J31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
     </row>
     <row r="33" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
@@ -1502,7 +1508,7 @@
       <c r="L34" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M34" s="16" t="s">
+      <c r="M34" s="14" t="s">
         <v>12</v>
       </c>
       <c r="N34" s="14" t="s">
@@ -1532,13 +1538,13 @@
       <c r="J35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -1554,13 +1560,13 @@
       <c r="J36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -1576,13 +1582,13 @@
       <c r="J37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C42" s="7"/>

--- a/Model Variants Evaluations.xlsx
+++ b/Model Variants Evaluations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdally/OneDrive - Delft University of Technology/TU/Agent-based Modelling/agent_based_modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633DB90C-B111-E445-9402-EC46F8ABFBA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56640326-0D71-B045-BA86-F29C5E7F8FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{9A281EE4-BE87-9E4A-80E3-1AE2D8647109}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24820" windowHeight="15540" activeTab="1" xr2:uid="{9A281EE4-BE87-9E4A-80E3-1AE2D8647109}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel2LaTeX" sheetId="2" state="hidden" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="41">
   <si>
     <t>Variant</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Global</t>
-  </si>
-  <si>
-    <t>2 or 3</t>
   </si>
   <si>
     <t>Negotiation</t>
@@ -170,15 +167,39 @@
   <si>
     <t>Coefficient of variation n=10</t>
   </si>
+  <si>
+    <t>less waiting time due to rule</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>less wt</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
+    <t>occ</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -265,11 +286,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -280,13 +310,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,26 +637,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <f>COUNT(Sheet1!$A$10:$H$13)</f>
         <v>21</v>
@@ -639,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -651,11 +683,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C108C9-42B1-8444-A957-8C652590726B}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
@@ -668,7 +700,7 @@
     <col min="14" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -679,10 +711,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -692,11 +736,15 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D2" s="1"/>
+      <c r="F2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -704,13 +752,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F3" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -720,11 +771,11 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -732,73 +783,74 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="F5" s="15"/>
+    </row>
+    <row r="9" spans="1:17" ht="21">
       <c r="A9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>1861.7</v>
@@ -822,7 +874,7 @@
         <v>31.666</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="3">
         <v>9.3997999999999998E-3</v>
@@ -846,9 +898,9 @@
         <v>2.2609E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>2485.1</v>
@@ -872,7 +924,7 @@
         <v>31.838000000000001</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="3">
         <v>1.2725E-4</v>
@@ -896,9 +948,9 @@
         <v>1.6106E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>2485.5</v>
@@ -922,7 +974,7 @@
         <v>31.427</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K13" s="3">
         <v>2.1205E-4</v>
@@ -946,7 +998,7 @@
         <v>1.5856999999999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -955,12 +1007,12 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="21">
       <c r="A15" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -970,59 +1022,59 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>1860.4</v>
@@ -1046,7 +1098,7 @@
         <v>31.667000000000002</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" s="3">
         <v>7.7406000000000003E-3</v>
@@ -1070,9 +1122,9 @@
         <v>1.4800999999999999E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>2485.1</v>
@@ -1096,7 +1148,7 @@
         <v>32.119</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="3">
         <v>1.2725E-4</v>
@@ -1120,9 +1172,9 @@
         <v>1.5027E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>2485.4</v>
@@ -1146,7 +1198,7 @@
         <v>31.719000000000001</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" s="3">
         <v>2.0777E-4</v>
@@ -1170,7 +1222,7 @@
         <v>1.5424999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
@@ -1179,12 +1231,12 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="21">
       <c r="A21" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -1194,59 +1246,59 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q22" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1256,7 +1308,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1266,9 +1318,9 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1278,7 +1330,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1288,9 +1340,9 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1300,7 +1352,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1310,7 +1362,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
@@ -1319,12 +1371,12 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="21">
       <c r="A27" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
@@ -1334,59 +1386,59 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q28" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1396,7 +1448,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -1406,9 +1458,9 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1418,7 +1470,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1428,9 +1480,9 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1440,7 +1492,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1450,7 +1502,7 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
@@ -1459,12 +1511,12 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
     </row>
-    <row r="33" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="21">
       <c r="A33" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -1474,59 +1526,59 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M34" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N34" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P34" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q34" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1536,7 +1588,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -1546,9 +1598,9 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1558,7 +1610,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -1568,9 +1620,9 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1580,7 +1632,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -1590,13 +1642,14 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="C42" s="7"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:3">
       <c r="C57" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Model Variants Evaluations.xlsx
+++ b/Model Variants Evaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdally/OneDrive - Delft University of Technology/TU/Agent-based Modelling/agent_based_modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56640326-0D71-B045-BA86-F29C5E7F8FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912189DB-C97F-4949-903E-12BB1329973B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24820" windowHeight="15540" activeTab="1" xr2:uid="{9A281EE4-BE87-9E4A-80E3-1AE2D8647109}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
   <si>
     <t>Variant</t>
   </si>
@@ -52,20 +52,6 @@
     <t>Structural Modifications</t>
   </si>
   <si>
-    <r>
-      <t>Negotiation (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>Collisions due to high weights)</t>
-    </r>
-  </si>
-  <si>
     <t>Global</t>
   </si>
   <si>
@@ -79,9 +65,6 @@
   </si>
   <si>
     <t>Number of collisions</t>
-  </si>
-  <si>
-    <t>Waiting aircraft (of all aircraft)</t>
   </si>
   <si>
     <t>Occupied links (of all links)</t>
@@ -162,9 +145,6 @@
     <t>Variant 4</t>
   </si>
   <si>
-    <t>Average travel distance (patches)</t>
-  </si>
-  <si>
     <t>Coefficient of variation n=10</t>
   </si>
   <si>
@@ -190,6 +170,18 @@
   </si>
   <si>
     <t>Structure</t>
+  </si>
+  <si>
+    <t>Travel distance [pch]</t>
+  </si>
+  <si>
+    <t>Travel time [tck]</t>
+  </si>
+  <si>
+    <t>Travel distance</t>
+  </si>
+  <si>
+    <t>Travel time</t>
   </si>
 </sst>
 </file>
@@ -199,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -637,26 +629,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>COUNT(Sheet1!$A$10:$H$13)</f>
         <v>21</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -683,24 +675,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C108C9-42B1-8444-A957-8C652590726B}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="8" max="8" width="44.1640625" customWidth="1"/>
     <col min="11" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -711,22 +704,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -738,13 +731,13 @@
       </c>
       <c r="D2" s="1"/>
       <c r="F2" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -752,105 +745,105 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="9" spans="1:17" ht="21">
+    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>1861.7</v>
@@ -874,7 +867,7 @@
         <v>31.666</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K11" s="3">
         <v>9.3997999999999998E-3</v>
@@ -898,9 +891,9 @@
         <v>2.2609E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>2485.1</v>
@@ -924,7 +917,7 @@
         <v>31.838000000000001</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" s="3">
         <v>1.2725E-4</v>
@@ -948,9 +941,9 @@
         <v>1.6106E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>2485.5</v>
@@ -974,7 +967,7 @@
         <v>31.427</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K13" s="3">
         <v>2.1205E-4</v>
@@ -998,7 +991,7 @@
         <v>1.5856999999999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -1007,12 +1000,12 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17" ht="21">
+    <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -1022,59 +1015,59 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>1860.4</v>
@@ -1098,7 +1091,7 @@
         <v>31.667000000000002</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K17" s="3">
         <v>7.7406000000000003E-3</v>
@@ -1122,9 +1115,9 @@
         <v>1.4800999999999999E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
         <v>2485.1</v>
@@ -1148,7 +1141,7 @@
         <v>32.119</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K18" s="3">
         <v>1.2725E-4</v>
@@ -1172,9 +1165,9 @@
         <v>1.5027E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1">
         <v>2485.4</v>
@@ -1198,7 +1191,7 @@
         <v>31.719000000000001</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K19" s="3">
         <v>2.0777E-4</v>
@@ -1222,7 +1215,7 @@
         <v>1.5424999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
@@ -1231,12 +1224,12 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" ht="21">
+    <row r="21" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -1246,59 +1239,59 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q22" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1308,7 +1301,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1318,9 +1311,9 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1330,7 +1323,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1340,9 +1333,9 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1352,7 +1345,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1362,7 +1355,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
@@ -1371,12 +1364,12 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="21">
+    <row r="27" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
@@ -1386,59 +1379,59 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q28" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1448,7 +1441,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -1458,9 +1451,9 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1470,7 +1463,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1480,9 +1473,9 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1492,7 +1485,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1502,7 +1495,7 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
@@ -1511,12 +1504,12 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
     </row>
-    <row r="33" spans="1:17" ht="21">
+    <row r="33" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -1526,59 +1519,59 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M34" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N34" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="P34" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q34" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1588,7 +1581,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -1598,9 +1591,9 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1610,7 +1603,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -1620,9 +1613,9 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1632,7 +1625,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -1642,10 +1635,10 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C42" s="7"/>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="7"/>
     </row>
   </sheetData>

--- a/Model Variants Evaluations.xlsx
+++ b/Model Variants Evaluations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdally/OneDrive - Delft University of Technology/TU/Agent-based Modelling/agent_based_modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912189DB-C97F-4949-903E-12BB1329973B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C28311-C228-9B41-ABF8-6621E6FF245A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24820" windowHeight="15540" activeTab="1" xr2:uid="{9A281EE4-BE87-9E4A-80E3-1AE2D8647109}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24840" windowHeight="15540" activeTab="1" xr2:uid="{9A281EE4-BE87-9E4A-80E3-1AE2D8647109}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel2LaTeX" sheetId="2" state="hidden" r:id="rId1"/>
@@ -188,9 +188,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -291,26 +288,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C108C9-42B1-8444-A957-8C652590726B}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,31 +681,32 @@
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="44.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="9"/>
+    <col min="8" max="8" width="44.1640625" style="9" customWidth="1"/>
     <col min="11" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="9" t="s">
         <v>34</v>
       </c>
       <c r="I1" t="s">
@@ -730,10 +727,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -784,60 +781,60 @@
       <c r="F5" s="15"/>
     </row>
     <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -846,49 +843,49 @@
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>1861.7</v>
+        <v>288.60000000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>1866</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="8">
-        <v>2.29</v>
-      </c>
-      <c r="F11" s="8">
-        <v>55.896000000000001</v>
-      </c>
-      <c r="G11" s="8">
-        <v>24.311</v>
-      </c>
-      <c r="H11" s="8">
-        <v>31.666</v>
+      <c r="E11" s="3">
+        <v>0.55805000000000005</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.24306</v>
+      </c>
+      <c r="G11" s="13">
+        <v>31.667000000000002</v>
+      </c>
+      <c r="H11" s="13">
+        <v>33.404000000000003</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K11" s="3">
-        <v>9.3997999999999998E-3</v>
+        <v>2.0414000000000002E-2</v>
       </c>
       <c r="L11" s="3">
-        <v>9.3676999999999996E-3</v>
+        <v>2.0358000000000001E-2</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
       </c>
       <c r="N11" s="3">
-        <v>4.9807000000000002E-3</v>
+        <v>6.0683000000000004E-3</v>
       </c>
       <c r="O11" s="3">
-        <v>1.7878E-3</v>
+        <v>2.8422000000000001E-4</v>
       </c>
       <c r="P11" s="3">
-        <v>9.7156000000000003E-5</v>
+        <v>2.3652E-16</v>
       </c>
       <c r="Q11" s="3">
-        <v>2.2609E-5</v>
+        <v>2.7912999999999999E-4</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -896,49 +893,49 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>2485.1</v>
+        <v>385.2</v>
       </c>
       <c r="C12" s="1">
-        <v>2485.9</v>
+        <v>385.8</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="8">
-        <v>67.84</v>
-      </c>
-      <c r="F12" s="8">
-        <v>91.372</v>
-      </c>
-      <c r="G12" s="8">
-        <v>99.061999999999998</v>
-      </c>
-      <c r="H12" s="8">
-        <v>31.838000000000001</v>
+      <c r="E12" s="3">
+        <v>0.91349000000000002</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="G12" s="13">
+        <v>31.823</v>
+      </c>
+      <c r="H12" s="13">
+        <v>69.460999999999999</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="3">
-        <v>1.2725E-4</v>
+        <v>1.0946E-3</v>
       </c>
       <c r="L12" s="3">
-        <v>1.2721E-4</v>
+        <v>1.0928999999999999E-3</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>2.4352000000000002E-3</v>
+        <v>6.9154999999999998E-3</v>
       </c>
       <c r="O12" s="3">
-        <v>1.7390999999999999E-3</v>
+        <v>1.2793000000000001E-2</v>
       </c>
       <c r="P12" s="3">
-        <v>3.8257999999999999E-3</v>
+        <v>1.6432E-3</v>
       </c>
       <c r="Q12" s="3">
-        <v>1.6106E-3</v>
+        <v>4.1724999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -946,122 +943,122 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>2485.5</v>
+        <v>385.6</v>
       </c>
       <c r="C13" s="1">
-        <v>1864.9</v>
+        <v>286.89999999999998</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="8">
-        <v>46.381</v>
-      </c>
-      <c r="F13" s="8">
-        <v>69.543999999999997</v>
-      </c>
-      <c r="G13" s="8">
-        <v>51.37</v>
-      </c>
-      <c r="H13" s="8">
-        <v>31.427</v>
+      <c r="E13" s="3">
+        <v>0.69060999999999995</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.49911</v>
+      </c>
+      <c r="G13" s="13">
+        <v>31.425000000000001</v>
+      </c>
+      <c r="H13" s="13">
+        <v>47.715000000000003</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="3">
-        <v>2.1205E-4</v>
+        <v>1.3392E-3</v>
       </c>
       <c r="L13" s="3">
-        <v>5.3169999999999997E-3</v>
+        <v>2.0420000000000001E-2</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
       </c>
       <c r="N13" s="3">
-        <v>1.4149E-2</v>
+        <v>9.9285999999999992E-3</v>
       </c>
       <c r="O13" s="3">
-        <v>3.5728999999999999E-3</v>
+        <v>3.6908000000000003E-2</v>
       </c>
       <c r="P13" s="3">
-        <v>1.0446E-2</v>
+        <v>1.4506E-3</v>
       </c>
       <c r="Q13" s="3">
-        <v>1.5856999999999999E-4</v>
+        <v>6.0602000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
     </row>
     <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1070,49 +1067,49 @@
         <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>1860.4</v>
+        <v>289.60000000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>1867.5</v>
+        <v>288.2</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="8">
-        <v>2.3420999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>57.287999999999997</v>
-      </c>
-      <c r="G17" s="8">
-        <v>24.324000000000002</v>
-      </c>
-      <c r="H17" s="8">
-        <v>31.667000000000002</v>
+      <c r="E17" s="3">
+        <v>0.58247000000000004</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.24315999999999999</v>
+      </c>
+      <c r="G17" s="13">
+        <v>31.664000000000001</v>
+      </c>
+      <c r="H17" s="13">
+        <v>33.414999999999999</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K17" s="3">
-        <v>7.7406000000000003E-3</v>
+        <v>1.5545E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>7.7114000000000002E-3</v>
+        <v>1.5327E-2</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>6.1411E-3</v>
+        <v>5.1751999999999996E-3</v>
       </c>
       <c r="O17" s="3">
-        <v>1.1069999999999999E-3</v>
+        <v>1.8567E-4</v>
       </c>
       <c r="P17" s="3">
-        <v>1.2976E-4</v>
+        <v>1.9815999999999999E-4</v>
       </c>
       <c r="Q17" s="3">
-        <v>1.4800999999999999E-5</v>
+        <v>3.2401000000000001E-4</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -1120,49 +1117,49 @@
         <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>2485.1</v>
+        <v>385.2</v>
       </c>
       <c r="C18" s="1">
-        <v>2307.6</v>
+        <v>385.8</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>58.231000000000002</v>
-      </c>
-      <c r="F18" s="8">
-        <v>83.126000000000005</v>
-      </c>
-      <c r="G18" s="8">
-        <v>77.58</v>
-      </c>
-      <c r="H18" s="8">
-        <v>32.119</v>
+        <v>1.6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.87211000000000005</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.0048999999999999</v>
+      </c>
+      <c r="G18" s="13">
+        <v>30.579000000000001</v>
+      </c>
+      <c r="H18" s="13">
+        <v>101.5</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="3">
-        <v>1.2725E-4</v>
+        <v>1.0946E-3</v>
       </c>
       <c r="L18" s="3">
-        <v>0.12449</v>
+        <v>1.0928999999999999E-3</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>0.79056999999999999</v>
       </c>
       <c r="N18" s="3">
-        <v>0.14634</v>
+        <v>5.7660999999999997E-3</v>
       </c>
       <c r="O18" s="3">
-        <v>9.6458000000000002E-2</v>
+        <v>4.6539999999999998E-5</v>
       </c>
       <c r="P18" s="3">
-        <v>0.23488999999999999</v>
+        <v>3.4797999999999999E-3</v>
       </c>
       <c r="Q18" s="3">
-        <v>1.5027E-2</v>
+        <v>1.7519000000000001E-4</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -1170,122 +1167,126 @@
         <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>2485.4</v>
+        <v>385.1</v>
       </c>
       <c r="C19" s="1">
-        <v>2068.8000000000002</v>
+        <v>374.6</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="8">
-        <v>51.078000000000003</v>
-      </c>
-      <c r="F19" s="8">
-        <v>76.450999999999993</v>
-      </c>
-      <c r="G19" s="8">
-        <v>62.445999999999998</v>
-      </c>
-      <c r="H19" s="8">
-        <v>31.719000000000001</v>
+      <c r="E19" s="3">
+        <v>0.70211999999999997</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.38456000000000001</v>
+      </c>
+      <c r="G19" s="13">
+        <v>31.263000000000002</v>
+      </c>
+      <c r="H19" s="13">
+        <v>39.462000000000003</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K19" s="3">
-        <v>2.0777E-4</v>
+        <v>8.2116000000000003E-4</v>
       </c>
       <c r="L19" s="3">
-        <v>0.13911999999999999</v>
+        <v>7.3593E-3</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
       </c>
       <c r="N19" s="3">
-        <v>0.16864999999999999</v>
+        <v>1.0708000000000001E-2</v>
       </c>
       <c r="O19" s="3">
-        <v>0.10568</v>
+        <v>3.8746000000000003E-2</v>
       </c>
       <c r="P19" s="3">
-        <v>0.29341</v>
+        <v>3.8412E-4</v>
       </c>
       <c r="Q19" s="3">
-        <v>1.5424999999999999E-2</v>
+        <v>3.7097999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="H20" s="9">
+        <f>H18/H12-1</f>
+        <v>0.46125163760959387</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1296,10 +1297,10 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="1"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
       <c r="J23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1318,10 +1319,10 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="1"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
       <c r="J24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1340,10 +1341,10 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="1"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
       <c r="J25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,76 +1357,76 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
     </row>
     <row r="27" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M28" s="14" t="s">
+      <c r="M28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="O28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P28" s="5" t="s">
+      <c r="P28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="Q28" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1433,139 +1434,223 @@
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="1"/>
+      <c r="B29" s="1">
+        <v>297.60000000000002</v>
+      </c>
+      <c r="C29" s="1">
+        <v>279.8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.54183000000000003</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.24313000000000001</v>
+      </c>
+      <c r="G29" s="13">
+        <v>31.658000000000001</v>
+      </c>
+      <c r="H29" s="13">
+        <v>33.418999999999997</v>
+      </c>
       <c r="J29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="K29" s="3">
+        <v>1.9796999999999999E-2</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2.103E-2</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>6.5109E-3</v>
+      </c>
+      <c r="O29" s="3">
+        <v>2.0709999999999999E-4</v>
+      </c>
+      <c r="P29" s="3">
+        <v>2.4274E-4</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>4.0004E-4</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="1"/>
+      <c r="B30" s="1">
+        <v>385</v>
+      </c>
+      <c r="C30" s="1">
+        <v>386</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.65507000000000004</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.43423</v>
+      </c>
+      <c r="G30" s="13">
+        <v>32.308999999999997</v>
+      </c>
+      <c r="H30" s="13">
+        <v>43.985999999999997</v>
+      </c>
       <c r="J30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1.1226E-2</v>
+      </c>
+      <c r="O30" s="3">
+        <v>3.9329999999999997E-2</v>
+      </c>
+      <c r="P30" s="3">
+        <v>2.0186000000000002E-3</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>3.4916000000000003E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="1"/>
+      <c r="B31" s="1">
+        <v>385</v>
+      </c>
+      <c r="C31" s="1">
+        <v>332.1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.61197999999999997</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.32242999999999999</v>
+      </c>
+      <c r="G31" s="13">
+        <v>31.335000000000001</v>
+      </c>
+      <c r="H31" s="13">
+        <v>35.332999999999998</v>
+      </c>
       <c r="J31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2.3771E-2</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1.1252E-2</v>
+      </c>
+      <c r="O31" s="3">
+        <v>2.5335E-2</v>
+      </c>
+      <c r="P31" s="3">
+        <v>9.0352E-4</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>8.4947000000000009E-3</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
     </row>
     <row r="33" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M34" s="14" t="s">
+      <c r="M34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="P34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q34" s="5" t="s">
+      <c r="Q34" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1576,10 +1661,10 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="1"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
       <c r="J35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1598,10 +1683,10 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="1"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
       <c r="J36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1620,10 +1705,10 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="1"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
       <c r="J37" s="1" t="s">
         <v>15</v>
       </c>
@@ -1636,10 +1721,10 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C42" s="7"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="7"/>
+      <c r="C57" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
